--- a/data/JAM/10021.xlsx
+++ b/data/JAM/10021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="27">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%*norm_c</t>
   </si>
   <si>
     <t xml:space="preserve">nmc</t>
@@ -264,12 +267,12 @@
   <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A261 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6511627906977"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8640,15 +8643,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P261"/>
+  <dimension ref="A1:Q261"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A261"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.6511627906977"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8700,10 +8703,13 @@
       <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.0015</v>
@@ -8712,16 +8718,16 @@
         <v>0.16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="7" t="n">
         <v>1</v>
@@ -8750,10 +8756,13 @@
       <c r="P2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0.0015</v>
@@ -8762,16 +8771,16 @@
         <v>0.25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="7" t="n">
         <v>1</v>
@@ -8800,10 +8809,13 @@
       <c r="P3" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q3" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0.0015</v>
@@ -8812,16 +8824,16 @@
         <v>0.35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>1</v>
@@ -8850,10 +8862,13 @@
       <c r="P4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0.0015</v>
@@ -8862,16 +8877,16 @@
         <v>0.45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7" t="n">
         <v>1</v>
@@ -8900,10 +8915,13 @@
       <c r="P5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.0015</v>
@@ -8912,16 +8930,16 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7" t="n">
         <v>1</v>
@@ -8950,10 +8968,13 @@
       <c r="P6" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.003</v>
@@ -8962,16 +8983,16 @@
         <v>0.17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>1</v>
@@ -9000,10 +9021,13 @@
       <c r="P7" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q7" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.003</v>
@@ -9012,16 +9036,16 @@
         <v>0.25</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7" t="n">
         <v>1</v>
@@ -9050,10 +9074,13 @@
       <c r="P8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0.003</v>
@@ -9062,16 +9089,16 @@
         <v>0.35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7" t="n">
         <v>1</v>
@@ -9100,10 +9127,13 @@
       <c r="P9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>0.003</v>
@@ -9112,16 +9142,16 @@
         <v>0.45</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>1</v>
@@ -9150,10 +9180,13 @@
       <c r="P10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>0.003</v>
@@ -9162,16 +9195,16 @@
         <v>0.63</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7" t="n">
         <v>1</v>
@@ -9200,10 +9233,13 @@
       <c r="P11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0.003</v>
@@ -9212,16 +9248,16 @@
         <v>0.88</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>1</v>
@@ -9250,10 +9286,13 @@
       <c r="P12" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0.003</v>
@@ -9262,16 +9301,16 @@
         <v>1.12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>1</v>
@@ -9300,10 +9339,13 @@
       <c r="P13" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0.005</v>
@@ -9312,16 +9354,16 @@
         <v>0.16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>1</v>
@@ -9350,10 +9392,13 @@
       <c r="P14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0.005</v>
@@ -9362,16 +9407,16 @@
         <v>0.25</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>1</v>
@@ -9400,10 +9445,13 @@
       <c r="P15" s="1" t="n">
         <v>-0.1</v>
       </c>
+      <c r="Q15" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0.005</v>
@@ -9412,16 +9460,16 @@
         <v>0.35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>1</v>
@@ -9450,10 +9498,13 @@
       <c r="P16" s="1" t="n">
         <v>-0.1</v>
       </c>
+      <c r="Q16" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>0.005</v>
@@ -9462,16 +9513,16 @@
         <v>0.45</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>1</v>
@@ -9500,10 +9551,13 @@
       <c r="P17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0.005</v>
@@ -9512,16 +9566,16 @@
         <v>0.61</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>1</v>
@@ -9550,10 +9604,13 @@
       <c r="P18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0.005</v>
@@ -9562,16 +9619,16 @@
         <v>0.88</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>1</v>
@@ -9600,10 +9657,13 @@
       <c r="P19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>0.005</v>
@@ -9612,16 +9672,16 @@
         <v>1.13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>1</v>
@@ -9650,10 +9710,13 @@
       <c r="P20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>0.005</v>
@@ -9662,16 +9725,16 @@
         <v>1.38</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>1</v>
@@ -9700,10 +9763,13 @@
       <c r="P21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0.005</v>
@@ -9712,16 +9778,16 @@
         <v>1.71</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>1</v>
@@ -9750,10 +9816,13 @@
       <c r="P22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>0.008</v>
@@ -9762,16 +9831,16 @@
         <v>0.16</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>1</v>
@@ -9800,10 +9869,13 @@
       <c r="P23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>0.008</v>
@@ -9812,16 +9884,16 @@
         <v>0.25</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>1</v>
@@ -9850,10 +9922,13 @@
       <c r="P24" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q24" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>0.008</v>
@@ -9862,16 +9937,16 @@
         <v>0.35</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>1</v>
@@ -9900,10 +9975,13 @@
       <c r="P25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>0.008</v>
@@ -9912,16 +9990,16 @@
         <v>0.45</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>1</v>
@@ -9950,10 +10028,13 @@
       <c r="P26" s="1" t="n">
         <v>-0.1</v>
       </c>
+      <c r="Q26" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>0.008</v>
@@ -9962,16 +10043,16 @@
         <v>0.64</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>1</v>
@@ -10000,10 +10081,13 @@
       <c r="P27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>0.008</v>
@@ -10012,16 +10096,16 @@
         <v>0.86</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" s="7" t="n">
         <v>1</v>
@@ -10050,10 +10134,13 @@
       <c r="P28" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>0.008</v>
@@ -10062,16 +10149,16 @@
         <v>1.12</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" s="7" t="n">
         <v>1</v>
@@ -10100,10 +10187,13 @@
       <c r="P29" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>0.008</v>
@@ -10112,16 +10202,16 @@
         <v>1.37</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" s="7" t="n">
         <v>1</v>
@@ -10150,10 +10240,13 @@
       <c r="P30" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>0.008</v>
@@ -10162,16 +10255,16 @@
         <v>1.75</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H31" s="7" t="n">
         <v>1</v>
@@ -10200,10 +10293,13 @@
       <c r="P31" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>0.008</v>
@@ -10212,16 +10308,16 @@
         <v>2.24</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H32" s="7" t="n">
         <v>1</v>
@@ -10250,10 +10346,13 @@
       <c r="P32" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>0.008</v>
@@ -10262,16 +10361,16 @@
         <v>2.73</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H33" s="7" t="n">
         <v>1</v>
@@ -10300,10 +10399,13 @@
       <c r="P33" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>0.008</v>
@@ -10312,16 +10414,16 @@
         <v>3.46</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" s="7" t="n">
         <v>1</v>
@@ -10350,10 +10452,13 @@
       <c r="P34" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>0.0125</v>
@@ -10362,16 +10467,16 @@
         <v>0.16</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H35" s="7" t="n">
         <v>1</v>
@@ -10400,10 +10505,13 @@
       <c r="P35" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>0.0125</v>
@@ -10412,16 +10520,16 @@
         <v>0.26</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H36" s="7" t="n">
         <v>1</v>
@@ -10450,10 +10558,13 @@
       <c r="P36" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>0.0125</v>
@@ -10462,16 +10573,16 @@
         <v>0.35</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H37" s="7" t="n">
         <v>1</v>
@@ -10500,10 +10611,13 @@
       <c r="P37" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>0.0125</v>
@@ -10512,16 +10626,16 @@
         <v>0.45</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" s="7" t="n">
         <v>1</v>
@@ -10550,10 +10664,13 @@
       <c r="P38" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>0.0125</v>
@@ -10562,16 +10679,16 @@
         <v>0.62</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" s="7" t="n">
         <v>1</v>
@@ -10600,10 +10717,13 @@
       <c r="P39" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>0.0125</v>
@@ -10612,16 +10732,16 @@
         <v>0.88</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H40" s="7" t="n">
         <v>1</v>
@@ -10650,10 +10770,13 @@
       <c r="P40" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>0.0125</v>
@@ -10662,16 +10785,16 @@
         <v>1.12</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H41" s="7" t="n">
         <v>1</v>
@@ -10700,10 +10823,13 @@
       <c r="P41" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>0.0125</v>
@@ -10712,16 +10838,16 @@
         <v>1.37</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H42" s="7" t="n">
         <v>1</v>
@@ -10750,10 +10876,13 @@
       <c r="P42" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>0.0125</v>
@@ -10762,16 +10891,16 @@
         <v>1.74</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" s="7" t="n">
         <v>1</v>
@@ -10800,10 +10929,13 @@
       <c r="P43" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>0.0125</v>
@@ -10812,16 +10944,16 @@
         <v>2.23</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H44" s="7" t="n">
         <v>1</v>
@@ -10850,10 +10982,13 @@
       <c r="P44" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>0.0125</v>
@@ -10862,16 +10997,16 @@
         <v>2.74</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H45" s="7" t="n">
         <v>1</v>
@@ -10900,10 +11035,13 @@
       <c r="P45" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>0.0125</v>
@@ -10912,16 +11050,16 @@
         <v>3.46</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H46" s="7" t="n">
         <v>1</v>
@@ -10950,10 +11088,13 @@
       <c r="P46" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>0.0125</v>
@@ -10962,16 +11103,16 @@
         <v>4.47</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H47" s="7" t="n">
         <v>1</v>
@@ -11000,10 +11141,13 @@
       <c r="P47" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>0.0125</v>
@@ -11012,16 +11156,16 @@
         <v>5.41</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H48" s="7" t="n">
         <v>1</v>
@@ -11050,10 +11194,13 @@
       <c r="P48" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>0.0175</v>
@@ -11062,16 +11209,16 @@
         <v>0.25</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49" s="7" t="n">
         <v>1</v>
@@ -11100,10 +11247,13 @@
       <c r="P49" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>0.0175</v>
@@ -11112,16 +11262,16 @@
         <v>0.35</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H50" s="7" t="n">
         <v>1</v>
@@ -11150,10 +11300,13 @@
       <c r="P50" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>0.0175</v>
@@ -11162,16 +11315,16 @@
         <v>0.45</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H51" s="7" t="n">
         <v>1</v>
@@ -11200,10 +11353,13 @@
       <c r="P51" s="1" t="n">
         <v>-0.1</v>
       </c>
+      <c r="Q51" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>0.0175</v>
@@ -11212,16 +11368,16 @@
         <v>0.62</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H52" s="7" t="n">
         <v>1</v>
@@ -11250,10 +11406,13 @@
       <c r="P52" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>0.0175</v>
@@ -11262,16 +11421,16 @@
         <v>0.88</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H53" s="7" t="n">
         <v>1</v>
@@ -11300,10 +11459,13 @@
       <c r="P53" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>0.0175</v>
@@ -11312,16 +11474,16 @@
         <v>1.12</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H54" s="7" t="n">
         <v>1</v>
@@ -11350,10 +11512,13 @@
       <c r="P54" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>0.0175</v>
@@ -11362,16 +11527,16 @@
         <v>1.37</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H55" s="7" t="n">
         <v>1</v>
@@ -11400,10 +11565,13 @@
       <c r="P55" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>0.0175</v>
@@ -11412,16 +11580,16 @@
         <v>1.75</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H56" s="7" t="n">
         <v>1</v>
@@ -11450,10 +11618,13 @@
       <c r="P56" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>0.0175</v>
@@ -11462,16 +11633,16 @@
         <v>2.24</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H57" s="7" t="n">
         <v>1</v>
@@ -11500,10 +11671,13 @@
       <c r="P57" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>0.0175</v>
@@ -11512,16 +11686,16 @@
         <v>2.73</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H58" s="7" t="n">
         <v>1</v>
@@ -11550,10 +11724,13 @@
       <c r="P58" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>0.0175</v>
@@ -11562,16 +11739,16 @@
         <v>3.48</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H59" s="7" t="n">
         <v>1</v>
@@ -11600,10 +11777,13 @@
       <c r="P59" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>0.0175</v>
@@ -11612,16 +11792,16 @@
         <v>4.47</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H60" s="7" t="n">
         <v>1</v>
@@ -11650,10 +11830,13 @@
       <c r="P60" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>0.0175</v>
@@ -11662,16 +11845,16 @@
         <v>5.49</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H61" s="7" t="n">
         <v>1</v>
@@ -11700,10 +11883,13 @@
       <c r="P61" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>0.0175</v>
@@ -11712,16 +11898,16 @@
         <v>6.83</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H62" s="7" t="n">
         <v>1</v>
@@ -11750,10 +11936,13 @@
       <c r="P62" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>0.025</v>
@@ -11762,16 +11951,16 @@
         <v>0.26</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H63" s="7" t="n">
         <v>1</v>
@@ -11800,10 +11989,13 @@
       <c r="P63" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>0.025</v>
@@ -11812,16 +12004,16 @@
         <v>0.35</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H64" s="7" t="n">
         <v>1</v>
@@ -11850,10 +12042,13 @@
       <c r="P64" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>0.025</v>
@@ -11862,16 +12057,16 @@
         <v>0.45</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H65" s="7" t="n">
         <v>1</v>
@@ -11900,10 +12095,13 @@
       <c r="P65" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>0.025</v>
@@ -11912,16 +12110,16 @@
         <v>0.62</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H66" s="7" t="n">
         <v>1</v>
@@ -11950,10 +12148,13 @@
       <c r="P66" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>0.025</v>
@@ -11962,16 +12163,16 @@
         <v>0.86</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H67" s="7" t="n">
         <v>1</v>
@@ -12000,10 +12201,13 @@
       <c r="P67" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>0.025</v>
@@ -12012,16 +12216,16 @@
         <v>1.13</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H68" s="7" t="n">
         <v>1</v>
@@ -12050,10 +12254,13 @@
       <c r="P68" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>0.025</v>
@@ -12062,16 +12269,16 @@
         <v>1.37</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H69" s="7" t="n">
         <v>1</v>
@@ -12100,10 +12307,13 @@
       <c r="P69" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>0.025</v>
@@ -12112,16 +12322,16 @@
         <v>1.74</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H70" s="7" t="n">
         <v>1</v>
@@ -12150,10 +12360,13 @@
       <c r="P70" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>0.025</v>
@@ -12162,16 +12375,16 @@
         <v>2.24</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H71" s="7" t="n">
         <v>1</v>
@@ -12200,10 +12413,13 @@
       <c r="P71" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>0.025</v>
@@ -12212,16 +12428,16 @@
         <v>2.74</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H72" s="7" t="n">
         <v>1</v>
@@ -12250,10 +12466,13 @@
       <c r="P72" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>0.025</v>
@@ -12262,16 +12481,16 @@
         <v>3.45</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H73" s="7" t="n">
         <v>1</v>
@@ -12300,10 +12519,13 @@
       <c r="P73" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>0.025</v>
@@ -12312,16 +12534,16 @@
         <v>4.47</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H74" s="7" t="n">
         <v>1</v>
@@ -12350,10 +12572,13 @@
       <c r="P74" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>0.025</v>
@@ -12362,16 +12587,16 @@
         <v>5.48</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H75" s="7" t="n">
         <v>1</v>
@@ -12400,10 +12625,13 @@
       <c r="P75" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>0.025</v>
@@ -12412,16 +12640,16 @@
         <v>6.92</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H76" s="7" t="n">
         <v>1</v>
@@ -12450,10 +12678,13 @@
       <c r="P76" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>0.025</v>
@@ -12462,16 +12693,16 @@
         <v>8.92</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H77" s="7" t="n">
         <v>1</v>
@@ -12500,10 +12731,13 @@
       <c r="P77" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>0.035</v>
@@ -12512,16 +12746,16 @@
         <v>0.36</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H78" s="7" t="n">
         <v>1</v>
@@ -12550,10 +12784,13 @@
       <c r="P78" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q78" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>0.035</v>
@@ -12562,16 +12799,16 @@
         <v>0.45</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H79" s="7" t="n">
         <v>1</v>
@@ -12600,10 +12837,13 @@
       <c r="P79" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>0.035</v>
@@ -12612,16 +12852,16 @@
         <v>0.64</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H80" s="7" t="n">
         <v>1</v>
@@ -12650,10 +12890,13 @@
       <c r="P80" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>0.035</v>
@@ -12662,16 +12905,16 @@
         <v>0.86</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H81" s="7" t="n">
         <v>1</v>
@@ -12700,10 +12943,13 @@
       <c r="P81" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>0.035</v>
@@ -12712,16 +12958,16 @@
         <v>1.13</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H82" s="7" t="n">
         <v>1</v>
@@ -12750,10 +12996,13 @@
       <c r="P82" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>0.035</v>
@@ -12762,16 +13011,16 @@
         <v>1.38</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H83" s="7" t="n">
         <v>1</v>
@@ -12800,10 +13049,13 @@
       <c r="P83" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>0.035</v>
@@ -12812,16 +13064,16 @@
         <v>1.74</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H84" s="7" t="n">
         <v>1</v>
@@ -12850,10 +13102,13 @@
       <c r="P84" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>0.035</v>
@@ -12862,16 +13117,16 @@
         <v>2.24</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H85" s="7" t="n">
         <v>1</v>
@@ -12900,10 +13155,13 @@
       <c r="P85" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>0.035</v>
@@ -12912,16 +13170,16 @@
         <v>2.74</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H86" s="7" t="n">
         <v>1</v>
@@ -12950,10 +13208,13 @@
       <c r="P86" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>0.035</v>
@@ -12962,16 +13223,16 @@
         <v>3.46</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H87" s="7" t="n">
         <v>1</v>
@@ -13000,10 +13261,13 @@
       <c r="P87" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>0.035</v>
@@ -13012,16 +13276,16 @@
         <v>4.45</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H88" s="7" t="n">
         <v>1</v>
@@ -13050,10 +13314,13 @@
       <c r="P88" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>0.035</v>
@@ -13062,16 +13329,16 @@
         <v>5.47</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H89" s="7" t="n">
         <v>1</v>
@@ -13100,10 +13367,13 @@
       <c r="P89" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>0.035</v>
@@ -13112,16 +13382,16 @@
         <v>6.92</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H90" s="7" t="n">
         <v>1</v>
@@ -13150,10 +13420,13 @@
       <c r="P90" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>0.035</v>
@@ -13162,16 +13435,16 @@
         <v>8.96</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H91" s="7" t="n">
         <v>1</v>
@@ -13200,10 +13473,13 @@
       <c r="P91" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>0.035</v>
@@ -13212,16 +13488,16 @@
         <v>11.45</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H92" s="7" t="n">
         <v>1</v>
@@ -13250,10 +13526,13 @@
       <c r="P92" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>0.035</v>
@@ -13262,16 +13541,16 @@
         <v>14.36</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H93" s="7" t="n">
         <v>1</v>
@@ -13300,10 +13579,13 @@
       <c r="P93" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>0.05</v>
@@ -13312,16 +13594,16 @@
         <v>0.46</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H94" s="7" t="n">
         <v>1</v>
@@ -13350,10 +13632,13 @@
       <c r="P94" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q94" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>0.05</v>
@@ -13362,16 +13647,16 @@
         <v>0.61</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H95" s="7" t="n">
         <v>1</v>
@@ -13400,10 +13685,13 @@
       <c r="P95" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q95" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>0.05</v>
@@ -13412,16 +13700,16 @@
         <v>0.88</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H96" s="7" t="n">
         <v>1</v>
@@ -13450,10 +13738,13 @@
       <c r="P96" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>0.05</v>
@@ -13462,16 +13753,16 @@
         <v>1.13</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H97" s="7" t="n">
         <v>1</v>
@@ -13500,10 +13791,13 @@
       <c r="P97" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>0.05</v>
@@ -13512,16 +13806,16 @@
         <v>1.37</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H98" s="7" t="n">
         <v>1</v>
@@ -13550,10 +13844,13 @@
       <c r="P98" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>0.05</v>
@@ -13562,16 +13859,16 @@
         <v>1.74</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H99" s="7" t="n">
         <v>1</v>
@@ -13600,10 +13897,13 @@
       <c r="P99" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>0.05</v>
@@ -13612,16 +13912,16 @@
         <v>2.25</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H100" s="7" t="n">
         <v>1</v>
@@ -13650,10 +13950,13 @@
       <c r="P100" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>0.05</v>
@@ -13662,16 +13965,16 @@
         <v>2.74</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H101" s="7" t="n">
         <v>1</v>
@@ -13700,10 +14003,13 @@
       <c r="P101" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>0.05</v>
@@ -13712,16 +14018,16 @@
         <v>3.46</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H102" s="7" t="n">
         <v>1</v>
@@ -13750,10 +14056,13 @@
       <c r="P102" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>0.05</v>
@@ -13762,16 +14071,16 @@
         <v>4.46</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H103" s="7" t="n">
         <v>1</v>
@@ -13800,10 +14109,13 @@
       <c r="P103" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>0.05</v>
@@ -13812,16 +14124,16 @@
         <v>5.46</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H104" s="7" t="n">
         <v>1</v>
@@ -13850,10 +14162,13 @@
       <c r="P104" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>0.05</v>
@@ -13862,16 +14177,16 @@
         <v>6.9</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H105" s="7" t="n">
         <v>1</v>
@@ -13900,10 +14215,13 @@
       <c r="P105" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>0.05</v>
@@ -13912,16 +14230,16 @@
         <v>8.93</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H106" s="7" t="n">
         <v>1</v>
@@ -13950,10 +14268,13 @@
       <c r="P106" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>0.05</v>
@@ -13962,16 +14283,16 @@
         <v>11.44</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H107" s="7" t="n">
         <v>1</v>
@@ -14000,10 +14321,13 @@
       <c r="P107" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>0.05</v>
@@ -14012,16 +14336,16 @@
         <v>14.82</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H108" s="7" t="n">
         <v>1</v>
@@ -14050,10 +14374,13 @@
       <c r="P108" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>0.05</v>
@@ -14062,16 +14389,16 @@
         <v>19.19</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H109" s="7" t="n">
         <v>1</v>
@@ -14100,10 +14427,13 @@
       <c r="P109" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>0.07</v>
@@ -14112,16 +14442,16 @@
         <v>0.68</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H110" s="7" t="n">
         <v>1</v>
@@ -14150,10 +14480,13 @@
       <c r="P110" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q110" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>0.07</v>
@@ -14162,16 +14495,16 @@
         <v>0.86</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H111" s="7" t="n">
         <v>1</v>
@@ -14200,10 +14533,13 @@
       <c r="P111" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q111" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>0.07</v>
@@ -14212,16 +14548,16 @@
         <v>1.11</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H112" s="7" t="n">
         <v>1</v>
@@ -14250,10 +14586,13 @@
       <c r="P112" s="1" t="n">
         <v>-0.1</v>
       </c>
+      <c r="Q112" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>0.07</v>
@@ -14262,16 +14601,16 @@
         <v>1.38</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H113" s="7" t="n">
         <v>1</v>
@@ -14300,10 +14639,13 @@
       <c r="P113" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q113" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>0.07</v>
@@ -14312,16 +14654,16 @@
         <v>1.74</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H114" s="7" t="n">
         <v>1</v>
@@ -14350,10 +14692,13 @@
       <c r="P114" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>0.07</v>
@@ -14362,16 +14707,16 @@
         <v>2.24</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H115" s="7" t="n">
         <v>1</v>
@@ -14400,10 +14745,13 @@
       <c r="P115" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>0.07</v>
@@ -14412,16 +14760,16 @@
         <v>2.75</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H116" s="7" t="n">
         <v>1</v>
@@ -14450,10 +14798,13 @@
       <c r="P116" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>0.07</v>
@@ -14462,16 +14813,16 @@
         <v>3.47</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H117" s="7" t="n">
         <v>1</v>
@@ -14500,10 +14851,13 @@
       <c r="P117" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>0.07</v>
@@ -14512,16 +14866,16 @@
         <v>4.47</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H118" s="7" t="n">
         <v>1</v>
@@ -14550,10 +14904,13 @@
       <c r="P118" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>0.07</v>
@@ -14562,16 +14919,16 @@
         <v>5.47</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H119" s="7" t="n">
         <v>1</v>
@@ -14600,10 +14957,13 @@
       <c r="P119" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q119" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>0.07</v>
@@ -14612,16 +14972,16 @@
         <v>6.91</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H120" s="7" t="n">
         <v>1</v>
@@ -14650,10 +15010,13 @@
       <c r="P120" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q120" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>0.07</v>
@@ -14662,16 +15025,16 @@
         <v>8.91</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H121" s="7" t="n">
         <v>1</v>
@@ -14700,10 +15063,13 @@
       <c r="P121" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q121" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>0.07</v>
@@ -14712,16 +15078,16 @@
         <v>11.4</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H122" s="7" t="n">
         <v>1</v>
@@ -14750,10 +15116,13 @@
       <c r="P122" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>0.07</v>
@@ -14762,16 +15131,16 @@
         <v>14.89</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H123" s="7" t="n">
         <v>1</v>
@@ -14800,10 +15169,13 @@
       <c r="P123" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q123" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>0.07</v>
@@ -14812,16 +15184,16 @@
         <v>19.63</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H124" s="7" t="n">
         <v>1</v>
@@ -14850,10 +15222,13 @@
       <c r="P124" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>0.07</v>
@@ -14862,16 +15237,16 @@
         <v>26.07</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H125" s="7" t="n">
         <v>1</v>
@@ -14900,10 +15275,13 @@
       <c r="P125" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>0.09</v>
@@ -14912,16 +15290,16 @@
         <v>0.9</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H126" s="7" t="n">
         <v>1</v>
@@ -14950,10 +15328,13 @@
       <c r="P126" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q126" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>0.09</v>
@@ -14962,16 +15343,16 @@
         <v>1.11</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H127" s="7" t="n">
         <v>1</v>
@@ -15000,10 +15381,13 @@
       <c r="P127" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q127" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>0.09</v>
@@ -15012,16 +15396,16 @@
         <v>1.38</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H128" s="7" t="n">
         <v>1</v>
@@ -15050,10 +15434,13 @@
       <c r="P128" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q128" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>0.09</v>
@@ -15062,16 +15449,16 @@
         <v>1.76</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H129" s="7" t="n">
         <v>1</v>
@@ -15100,10 +15487,13 @@
       <c r="P129" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q129" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>0.09</v>
@@ -15112,16 +15502,16 @@
         <v>2.24</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H130" s="7" t="n">
         <v>1</v>
@@ -15150,10 +15540,13 @@
       <c r="P130" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q130" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>0.09</v>
@@ -15162,16 +15555,16 @@
         <v>2.75</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H131" s="7" t="n">
         <v>1</v>
@@ -15200,10 +15593,13 @@
       <c r="P131" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q131" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>0.09</v>
@@ -15212,16 +15608,16 @@
         <v>3.49</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H132" s="7" t="n">
         <v>1</v>
@@ -15250,10 +15646,13 @@
       <c r="P132" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q132" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>0.09</v>
@@ -15262,16 +15661,16 @@
         <v>4.47</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H133" s="7" t="n">
         <v>1</v>
@@ -15300,10 +15699,13 @@
       <c r="P133" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q133" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>0.09</v>
@@ -15312,16 +15714,16 @@
         <v>5.46</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H134" s="7" t="n">
         <v>1</v>
@@ -15350,10 +15752,13 @@
       <c r="P134" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q134" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>0.09</v>
@@ -15362,16 +15767,16 @@
         <v>6.91</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H135" s="7" t="n">
         <v>1</v>
@@ -15400,10 +15805,13 @@
       <c r="P135" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q135" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>0.09</v>
@@ -15412,16 +15820,16 @@
         <v>8.92</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H136" s="7" t="n">
         <v>1</v>
@@ -15450,10 +15858,13 @@
       <c r="P136" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q136" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>0.09</v>
@@ -15462,16 +15873,16 @@
         <v>11.37</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H137" s="7" t="n">
         <v>1</v>
@@ -15500,10 +15911,13 @@
       <c r="P137" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q137" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>0.09</v>
@@ -15512,16 +15926,16 @@
         <v>14.87</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H138" s="7" t="n">
         <v>1</v>
@@ -15550,10 +15964,13 @@
       <c r="P138" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q138" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>0.09</v>
@@ -15562,16 +15979,16 @@
         <v>19.74</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H139" s="7" t="n">
         <v>1</v>
@@ -15600,10 +16017,13 @@
       <c r="P139" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q139" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>0.09</v>
@@ -15612,16 +16032,16 @@
         <v>26.36</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H140" s="7" t="n">
         <v>1</v>
@@ -15650,10 +16070,13 @@
       <c r="P140" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q140" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>0.09</v>
@@ -15662,16 +16085,16 @@
         <v>34.74</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H141" s="7" t="n">
         <v>1</v>
@@ -15700,10 +16123,13 @@
       <c r="P141" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q141" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>0.11</v>
@@ -15712,16 +16138,16 @@
         <v>1.13</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H142" s="7" t="n">
         <v>1</v>
@@ -15750,10 +16176,13 @@
       <c r="P142" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q142" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>0.11</v>
@@ -15762,16 +16191,16 @@
         <v>1.38</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H143" s="7" t="n">
         <v>1</v>
@@ -15800,10 +16229,13 @@
       <c r="P143" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q143" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>0.11</v>
@@ -15812,16 +16244,16 @@
         <v>1.75</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H144" s="7" t="n">
         <v>1</v>
@@ -15850,10 +16282,13 @@
       <c r="P144" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q144" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>0.11</v>
@@ -15862,16 +16297,16 @@
         <v>2.24</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H145" s="7" t="n">
         <v>1</v>
@@ -15900,10 +16335,13 @@
       <c r="P145" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q145" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>0.11</v>
@@ -15912,16 +16350,16 @@
         <v>2.74</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H146" s="7" t="n">
         <v>1</v>
@@ -15950,10 +16388,13 @@
       <c r="P146" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q146" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>0.11</v>
@@ -15962,16 +16403,16 @@
         <v>3.49</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H147" s="7" t="n">
         <v>1</v>
@@ -16000,10 +16441,13 @@
       <c r="P147" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q147" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>0.11</v>
@@ -16012,16 +16456,16 @@
         <v>4.47</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H148" s="7" t="n">
         <v>1</v>
@@ -16050,10 +16494,13 @@
       <c r="P148" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q148" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>0.11</v>
@@ -16062,16 +16509,16 @@
         <v>5.46</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H149" s="7" t="n">
         <v>1</v>
@@ -16100,10 +16547,13 @@
       <c r="P149" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q149" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>0.11</v>
@@ -16112,16 +16562,16 @@
         <v>6.9</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H150" s="7" t="n">
         <v>1</v>
@@ -16150,10 +16600,13 @@
       <c r="P150" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q150" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>0.11</v>
@@ -16162,16 +16615,16 @@
         <v>8.92</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H151" s="7" t="n">
         <v>1</v>
@@ -16200,10 +16653,13 @@
       <c r="P151" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q151" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>0.11</v>
@@ -16212,16 +16668,16 @@
         <v>11.37</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H152" s="7" t="n">
         <v>1</v>
@@ -16250,10 +16706,13 @@
       <c r="P152" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q152" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>0.11</v>
@@ -16262,16 +16721,16 @@
         <v>14.85</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H153" s="7" t="n">
         <v>1</v>
@@ -16300,10 +16759,13 @@
       <c r="P153" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q153" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>0.11</v>
@@ -16312,16 +16774,16 @@
         <v>19.74</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H154" s="7" t="n">
         <v>1</v>
@@ -16350,10 +16812,13 @@
       <c r="P154" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q154" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>0.11</v>
@@ -16362,16 +16827,16 @@
         <v>26.52</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H155" s="7" t="n">
         <v>1</v>
@@ -16400,10 +16865,13 @@
       <c r="P155" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q155" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>0.11</v>
@@ -16412,16 +16880,16 @@
         <v>35.32</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H156" s="7" t="n">
         <v>1</v>
@@ -16450,10 +16918,13 @@
       <c r="P156" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q156" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>0.11</v>
@@ -16462,16 +16933,16 @@
         <v>44.94</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H157" s="7" t="n">
         <v>1</v>
@@ -16500,10 +16971,13 @@
       <c r="P157" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q157" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>0.14</v>
@@ -16512,16 +16986,16 @@
         <v>1.4</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H158" s="7" t="n">
         <v>1</v>
@@ -16550,10 +17024,13 @@
       <c r="P158" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q158" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>0.14</v>
@@ -16562,16 +17039,16 @@
         <v>1.75</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H159" s="7" t="n">
         <v>1</v>
@@ -16600,10 +17077,13 @@
       <c r="P159" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q159" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>0.14</v>
@@ -16612,16 +17092,16 @@
         <v>2.24</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H160" s="7" t="n">
         <v>1</v>
@@ -16650,10 +17130,13 @@
       <c r="P160" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q160" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>0.14</v>
@@ -16662,16 +17145,16 @@
         <v>2.74</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H161" s="7" t="n">
         <v>1</v>
@@ -16700,10 +17183,13 @@
       <c r="P161" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q161" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>0.14</v>
@@ -16712,16 +17198,16 @@
         <v>3.47</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H162" s="7" t="n">
         <v>1</v>
@@ -16750,10 +17236,13 @@
       <c r="P162" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q162" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>0.14</v>
@@ -16762,16 +17251,16 @@
         <v>4.48</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H163" s="7" t="n">
         <v>1</v>
@@ -16800,10 +17289,13 @@
       <c r="P163" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q163" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>0.14</v>
@@ -16812,16 +17304,16 @@
         <v>5.47</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H164" s="7" t="n">
         <v>1</v>
@@ -16850,10 +17342,13 @@
       <c r="P164" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q164" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>0.14</v>
@@ -16862,16 +17357,16 @@
         <v>6.9</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H165" s="7" t="n">
         <v>1</v>
@@ -16900,10 +17395,13 @@
       <c r="P165" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q165" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>0.14</v>
@@ -16912,16 +17410,16 @@
         <v>8.92</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H166" s="7" t="n">
         <v>1</v>
@@ -16950,10 +17448,13 @@
       <c r="P166" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q166" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>0.14</v>
@@ -16962,16 +17463,16 @@
         <v>11.37</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H167" s="7" t="n">
         <v>1</v>
@@ -17000,10 +17501,13 @@
       <c r="P167" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q167" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>0.14</v>
@@ -17012,16 +17516,16 @@
         <v>14.84</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H168" s="7" t="n">
         <v>1</v>
@@ -17050,10 +17554,13 @@
       <c r="P168" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q168" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>0.14</v>
@@ -17062,16 +17569,16 @@
         <v>19.76</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H169" s="7" t="n">
         <v>1</v>
@@ -17100,10 +17607,13 @@
       <c r="P169" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q169" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>0.14</v>
@@ -17112,16 +17622,16 @@
         <v>26.55</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H170" s="7" t="n">
         <v>1</v>
@@ -17150,10 +17660,13 @@
       <c r="P170" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q170" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>0.14</v>
@@ -17162,16 +17675,16 @@
         <v>35.28</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H171" s="7" t="n">
         <v>1</v>
@@ -17200,10 +17713,13 @@
       <c r="P171" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q171" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>0.14</v>
@@ -17212,16 +17728,16 @@
         <v>46.95</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H172" s="7" t="n">
         <v>1</v>
@@ -17250,10 +17766,13 @@
       <c r="P172" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q172" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>0.18</v>
@@ -17262,16 +17781,16 @@
         <v>1.82</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H173" s="7" t="n">
         <v>1</v>
@@ -17300,10 +17819,13 @@
       <c r="P173" s="1" t="n">
         <v>0.3</v>
       </c>
+      <c r="Q173" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>0.18</v>
@@ -17312,16 +17834,16 @@
         <v>2.24</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H174" s="7" t="n">
         <v>1</v>
@@ -17350,10 +17872,13 @@
       <c r="P174" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q174" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>0.18</v>
@@ -17362,16 +17887,16 @@
         <v>2.75</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H175" s="7" t="n">
         <v>1</v>
@@ -17400,10 +17925,13 @@
       <c r="P175" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q175" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>0.18</v>
@@ -17412,16 +17940,16 @@
         <v>3.47</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H176" s="7" t="n">
         <v>1</v>
@@ -17450,10 +17978,13 @@
       <c r="P176" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q176" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>0.18</v>
@@ -17462,16 +17993,16 @@
         <v>4.47</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H177" s="7" t="n">
         <v>1</v>
@@ -17500,10 +18031,13 @@
       <c r="P177" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q177" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>0.18</v>
@@ -17512,16 +18046,16 @@
         <v>5.49</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H178" s="7" t="n">
         <v>1</v>
@@ -17550,10 +18084,13 @@
       <c r="P178" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q178" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>0.18</v>
@@ -17562,16 +18099,16 @@
         <v>6.92</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H179" s="7" t="n">
         <v>1</v>
@@ -17600,10 +18137,13 @@
       <c r="P179" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q179" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>0.18</v>
@@ -17612,16 +18152,16 @@
         <v>8.93</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H180" s="7" t="n">
         <v>1</v>
@@ -17650,10 +18190,13 @@
       <c r="P180" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q180" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>0.18</v>
@@ -17662,16 +18205,16 @@
         <v>11.37</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H181" s="7" t="n">
         <v>1</v>
@@ -17700,10 +18243,13 @@
       <c r="P181" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q181" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>0.18</v>
@@ -17712,16 +18258,16 @@
         <v>14.85</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H182" s="7" t="n">
         <v>1</v>
@@ -17750,10 +18296,13 @@
       <c r="P182" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q182" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>0.18</v>
@@ -17762,16 +18311,16 @@
         <v>19.75</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H183" s="7" t="n">
         <v>1</v>
@@ -17800,10 +18349,13 @@
       <c r="P183" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q183" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>0.18</v>
@@ -17812,16 +18364,16 @@
         <v>26.61</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H184" s="7" t="n">
         <v>1</v>
@@ -17850,10 +18402,13 @@
       <c r="P184" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q184" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>0.18</v>
@@ -17862,16 +18417,16 @@
         <v>35.37</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H185" s="7" t="n">
         <v>1</v>
@@ -17900,10 +18455,13 @@
       <c r="P185" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q185" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>0.18</v>
@@ -17912,16 +18470,16 @@
         <v>47.01</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H186" s="7" t="n">
         <v>1</v>
@@ -17950,10 +18508,13 @@
       <c r="P186" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q186" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>0.18</v>
@@ -17962,16 +18523,16 @@
         <v>63.04</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H187" s="7" t="n">
         <v>1</v>
@@ -18000,10 +18561,13 @@
       <c r="P187" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q187" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>0.225</v>
@@ -18012,16 +18576,16 @@
         <v>2.28</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H188" s="7" t="n">
         <v>1</v>
@@ -18050,10 +18614,13 @@
       <c r="P188" s="1" t="n">
         <v>0.3</v>
       </c>
+      <c r="Q188" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>0.225</v>
@@ -18062,16 +18629,16 @@
         <v>2.74</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H189" s="7" t="n">
         <v>1</v>
@@ -18100,10 +18667,13 @@
       <c r="P189" s="1" t="n">
         <v>0.3</v>
       </c>
+      <c r="Q189" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>0.225</v>
@@ -18112,16 +18682,16 @@
         <v>3.48</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H190" s="7" t="n">
         <v>1</v>
@@ -18150,10 +18720,13 @@
       <c r="P190" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q190" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>0.225</v>
@@ -18162,16 +18735,16 @@
         <v>4.47</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H191" s="7" t="n">
         <v>1</v>
@@ -18200,10 +18773,13 @@
       <c r="P191" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q191" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>0.225</v>
@@ -18212,16 +18788,16 @@
         <v>5.47</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H192" s="7" t="n">
         <v>1</v>
@@ -18250,10 +18826,13 @@
       <c r="P192" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q192" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>0.225</v>
@@ -18262,16 +18841,16 @@
         <v>6.97</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H193" s="7" t="n">
         <v>1</v>
@@ -18300,10 +18879,13 @@
       <c r="P193" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q193" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>0.225</v>
@@ -18312,16 +18894,16 @@
         <v>8.93</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H194" s="7" t="n">
         <v>1</v>
@@ -18350,10 +18932,13 @@
       <c r="P194" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q194" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>0.225</v>
@@ -18362,16 +18947,16 @@
         <v>11.38</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H195" s="7" t="n">
         <v>1</v>
@@ -18400,10 +18985,13 @@
       <c r="P195" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q195" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>0.225</v>
@@ -18412,16 +19000,16 @@
         <v>14.85</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H196" s="7" t="n">
         <v>1</v>
@@ -18450,10 +19038,13 @@
       <c r="P196" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q196" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>0.225</v>
@@ -18462,16 +19053,16 @@
         <v>19.74</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H197" s="7" t="n">
         <v>1</v>
@@ -18500,10 +19091,13 @@
       <c r="P197" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q197" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>0.225</v>
@@ -18512,16 +19106,16 @@
         <v>26.64</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H198" s="7" t="n">
         <v>1</v>
@@ -18550,10 +19144,13 @@
       <c r="P198" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q198" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>0.225</v>
@@ -18562,16 +19159,16 @@
         <v>35.42</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H199" s="7" t="n">
         <v>1</v>
@@ -18600,10 +19197,13 @@
       <c r="P199" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q199" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>0.225</v>
@@ -18612,16 +19212,16 @@
         <v>46.95</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H200" s="7" t="n">
         <v>1</v>
@@ -18650,10 +19250,13 @@
       <c r="P200" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q200" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>0.225</v>
@@ -18662,16 +19265,16 @@
         <v>63.23</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H201" s="7" t="n">
         <v>1</v>
@@ -18700,10 +19303,13 @@
       <c r="P201" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q201" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>0.275</v>
@@ -18712,16 +19318,16 @@
         <v>2.78</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H202" s="7" t="n">
         <v>1</v>
@@ -18750,10 +19356,13 @@
       <c r="P202" s="1" t="n">
         <v>0.5</v>
       </c>
+      <c r="Q202" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>0.275</v>
@@ -18762,16 +19371,16 @@
         <v>3.46</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H203" s="7" t="n">
         <v>1</v>
@@ -18800,10 +19409,13 @@
       <c r="P203" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Q203" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>0.275</v>
@@ -18812,16 +19424,16 @@
         <v>4.47</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H204" s="7" t="n">
         <v>1</v>
@@ -18850,10 +19462,13 @@
       <c r="P204" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q204" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>0.275</v>
@@ -18862,16 +19477,16 @@
         <v>5.47</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H205" s="7" t="n">
         <v>1</v>
@@ -18900,10 +19515,13 @@
       <c r="P205" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q205" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>0.275</v>
@@ -18912,16 +19530,16 @@
         <v>6.89</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H206" s="7" t="n">
         <v>1</v>
@@ -18950,10 +19568,13 @@
       <c r="P206" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q206" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>0.275</v>
@@ -18962,16 +19583,16 @@
         <v>8.94</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H207" s="7" t="n">
         <v>1</v>
@@ -19000,10 +19621,13 @@
       <c r="P207" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q207" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>0.275</v>
@@ -19012,16 +19636,16 @@
         <v>11.37</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H208" s="7" t="n">
         <v>1</v>
@@ -19050,10 +19674,13 @@
       <c r="P208" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q208" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>0.275</v>
@@ -19062,16 +19689,16 @@
         <v>14.87</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H209" s="7" t="n">
         <v>1</v>
@@ -19100,10 +19727,13 @@
       <c r="P209" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q209" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>0.275</v>
@@ -19112,16 +19742,16 @@
         <v>19.74</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H210" s="7" t="n">
         <v>1</v>
@@ -19150,10 +19780,13 @@
       <c r="P210" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q210" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>0.275</v>
@@ -19162,16 +19795,16 @@
         <v>26.6</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H211" s="7" t="n">
         <v>1</v>
@@ -19200,10 +19833,13 @@
       <c r="P211" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q211" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>0.275</v>
@@ -19212,16 +19848,16 @@
         <v>35.43</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H212" s="7" t="n">
         <v>1</v>
@@ -19250,10 +19886,13 @@
       <c r="P212" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q212" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>0.275</v>
@@ -19262,16 +19901,16 @@
         <v>46.98</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H213" s="7" t="n">
         <v>1</v>
@@ -19300,10 +19939,13 @@
       <c r="P213" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q213" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>0.275</v>
@@ -19312,16 +19954,16 @@
         <v>63.48</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H214" s="7" t="n">
         <v>1</v>
@@ -19350,10 +19992,13 @@
       <c r="P214" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q214" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>0.275</v>
@@ -19362,16 +20007,16 @@
         <v>90.68</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H215" s="7" t="n">
         <v>1</v>
@@ -19400,10 +20045,13 @@
       <c r="P215" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q215" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>0.35</v>
@@ -19412,16 +20060,16 @@
         <v>3.57</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H216" s="7" t="n">
         <v>1</v>
@@ -19450,10 +20098,13 @@
       <c r="P216" s="1" t="n">
         <v>0.6</v>
       </c>
+      <c r="Q216" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>0.35</v>
@@ -19462,16 +20113,16 @@
         <v>4.51</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H217" s="7" t="n">
         <v>1</v>
@@ -19500,10 +20151,13 @@
       <c r="P217" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Q217" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>0.35</v>
@@ -19512,16 +20166,16 @@
         <v>5.48</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H218" s="7" t="n">
         <v>1</v>
@@ -19550,10 +20204,13 @@
       <c r="P218" s="1" t="n">
         <v>0.3</v>
       </c>
+      <c r="Q218" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>0.35</v>
@@ -19562,16 +20219,16 @@
         <v>6.9</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H219" s="7" t="n">
         <v>1</v>
@@ -19600,10 +20257,13 @@
       <c r="P219" s="1" t="n">
         <v>0.3</v>
       </c>
+      <c r="Q219" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>0.35</v>
@@ -19612,16 +20272,16 @@
         <v>8.91</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H220" s="7" t="n">
         <v>1</v>
@@ -19650,10 +20310,13 @@
       <c r="P220" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q220" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>0.35</v>
@@ -19662,16 +20325,16 @@
         <v>11.43</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H221" s="7" t="n">
         <v>1</v>
@@ -19700,10 +20363,13 @@
       <c r="P221" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q221" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>0.35</v>
@@ -19712,16 +20378,16 @@
         <v>14.85</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H222" s="7" t="n">
         <v>1</v>
@@ -19750,10 +20416,13 @@
       <c r="P222" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q222" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>0.35</v>
@@ -19762,16 +20431,16 @@
         <v>19.74</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H223" s="7" t="n">
         <v>1</v>
@@ -19800,10 +20469,13 @@
       <c r="P223" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q223" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>0.35</v>
@@ -19812,16 +20484,16 @@
         <v>26.63</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H224" s="7" t="n">
         <v>1</v>
@@ -19850,10 +20522,13 @@
       <c r="P224" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q224" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>0.35</v>
@@ -19862,16 +20537,16 @@
         <v>35.45</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H225" s="7" t="n">
         <v>1</v>
@@ -19900,10 +20575,13 @@
       <c r="P225" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q225" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>0.35</v>
@@ -19912,16 +20590,16 @@
         <v>47.12</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H226" s="7" t="n">
         <v>1</v>
@@ -19950,10 +20628,13 @@
       <c r="P226" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q226" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>0.35</v>
@@ -19962,16 +20643,16 @@
         <v>63.52</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H227" s="7" t="n">
         <v>1</v>
@@ -20000,10 +20681,13 @@
       <c r="P227" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q227" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>0.35</v>
@@ -20012,16 +20696,16 @@
         <v>96.35</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H228" s="7" t="n">
         <v>1</v>
@@ -20050,10 +20734,13 @@
       <c r="P228" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q228" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>0.45</v>
@@ -20062,16 +20749,16 @@
         <v>4.54</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H229" s="7" t="n">
         <v>1</v>
@@ -20100,10 +20787,13 @@
       <c r="P229" s="1" t="n">
         <v>0.7</v>
       </c>
+      <c r="Q229" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>0.45</v>
@@ -20112,16 +20802,16 @@
         <v>5.47</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H230" s="7" t="n">
         <v>1</v>
@@ -20150,10 +20840,13 @@
       <c r="P230" s="1" t="n">
         <v>0.6</v>
       </c>
+      <c r="Q230" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>0.45</v>
@@ -20162,16 +20855,16 @@
         <v>6.93</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H231" s="7" t="n">
         <v>1</v>
@@ -20200,10 +20893,13 @@
       <c r="P231" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Q231" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>0.45</v>
@@ -20212,16 +20908,16 @@
         <v>8.92</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H232" s="7" t="n">
         <v>1</v>
@@ -20250,10 +20946,13 @@
       <c r="P232" s="1" t="n">
         <v>0.3</v>
       </c>
+      <c r="Q232" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>0.45</v>
@@ -20262,16 +20961,16 @@
         <v>11.34</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H233" s="7" t="n">
         <v>1</v>
@@ -20300,10 +20999,13 @@
       <c r="P233" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q233" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>0.45</v>
@@ -20312,16 +21014,16 @@
         <v>14.89</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H234" s="7" t="n">
         <v>1</v>
@@ -20350,10 +21052,13 @@
       <c r="P234" s="1" t="n">
         <v>0.3</v>
       </c>
+      <c r="Q234" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>0.45</v>
@@ -20362,16 +21067,16 @@
         <v>19.77</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H235" s="7" t="n">
         <v>1</v>
@@ -20400,10 +21105,13 @@
       <c r="P235" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q235" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>0.45</v>
@@ -20412,16 +21120,16 @@
         <v>26.64</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H236" s="7" t="n">
         <v>1</v>
@@ -20450,10 +21158,13 @@
       <c r="P236" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q236" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>0.45</v>
@@ -20462,16 +21173,16 @@
         <v>35.5</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H237" s="7" t="n">
         <v>1</v>
@@ -20500,10 +21211,13 @@
       <c r="P237" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q237" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>0.45</v>
@@ -20512,16 +21226,16 @@
         <v>47.26</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H238" s="7" t="n">
         <v>1</v>
@@ -20550,10 +21264,13 @@
       <c r="P238" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q238" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>0.45</v>
@@ -20562,16 +21279,16 @@
         <v>63.65</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H239" s="7" t="n">
         <v>1</v>
@@ -20600,10 +21317,13 @@
       <c r="P239" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q239" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>0.45</v>
@@ -20612,16 +21332,16 @@
         <v>98.05</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H240" s="7" t="n">
         <v>1</v>
@@ -20650,10 +21370,13 @@
       <c r="P240" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q240" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>0.55</v>
@@ -20662,16 +21385,16 @@
         <v>5.53</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H241" s="7" t="n">
         <v>1</v>
@@ -20700,10 +21423,13 @@
       <c r="P241" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Q241" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>0.55</v>
@@ -20712,16 +21438,16 @@
         <v>6.88</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H242" s="7" t="n">
         <v>1</v>
@@ -20750,10 +21476,13 @@
       <c r="P242" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Q242" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>0.55</v>
@@ -20762,16 +21491,16 @@
         <v>8.91</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H243" s="7" t="n">
         <v>1</v>
@@ -20800,10 +21529,13 @@
       <c r="P243" s="1" t="n">
         <v>0.3</v>
       </c>
+      <c r="Q243" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>0.55</v>
@@ -20812,16 +21544,16 @@
         <v>11.34</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H244" s="7" t="n">
         <v>1</v>
@@ -20850,10 +21582,13 @@
       <c r="P244" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q244" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>0.55</v>
@@ -20862,16 +21597,16 @@
         <v>14.85</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H245" s="7" t="n">
         <v>1</v>
@@ -20900,10 +21635,13 @@
       <c r="P245" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q245" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>0.55</v>
@@ -20912,16 +21650,16 @@
         <v>19.74</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H246" s="7" t="n">
         <v>1</v>
@@ -20950,10 +21688,13 @@
       <c r="P246" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q246" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>0.55</v>
@@ -20962,16 +21703,16 @@
         <v>26.64</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H247" s="7" t="n">
         <v>1</v>
@@ -21000,10 +21741,13 @@
       <c r="P247" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q247" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>0.55</v>
@@ -21012,16 +21756,16 @@
         <v>35.57</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H248" s="7" t="n">
         <v>1</v>
@@ -21050,10 +21794,13 @@
       <c r="P248" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q248" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>0.55</v>
@@ -21062,16 +21809,16 @@
         <v>47.16</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H249" s="7" t="n">
         <v>1</v>
@@ -21100,10 +21847,13 @@
       <c r="P249" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q249" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>0.55</v>
@@ -21112,16 +21862,16 @@
         <v>63.56</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G250" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H250" s="7" t="n">
         <v>1</v>
@@ -21150,10 +21900,13 @@
       <c r="P250" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q250" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>0.55</v>
@@ -21162,16 +21915,16 @@
         <v>98.82</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H251" s="7" t="n">
         <v>1</v>
@@ -21200,10 +21953,13 @@
       <c r="P251" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q251" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>0.675</v>
@@ -21212,16 +21968,16 @@
         <v>7.04</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H252" s="7" t="n">
         <v>1</v>
@@ -21250,10 +22006,13 @@
       <c r="P252" s="1" t="n">
         <v>-0.4</v>
       </c>
+      <c r="Q252" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>0.675</v>
@@ -21262,16 +22021,16 @@
         <v>8.88</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H253" s="7" t="n">
         <v>1</v>
@@ -21300,10 +22059,13 @@
       <c r="P253" s="1" t="n">
         <v>-0.3</v>
       </c>
+      <c r="Q253" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>0.675</v>
@@ -21312,16 +22074,16 @@
         <v>11.36</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H254" s="7" t="n">
         <v>1</v>
@@ -21350,10 +22112,13 @@
       <c r="P254" s="1" t="n">
         <v>-0.1</v>
       </c>
+      <c r="Q254" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>0.675</v>
@@ -21362,16 +22127,16 @@
         <v>14.85</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H255" s="7" t="n">
         <v>1</v>
@@ -21400,10 +22165,13 @@
       <c r="P255" s="1" t="n">
         <v>-0.1</v>
       </c>
+      <c r="Q255" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>0.675</v>
@@ -21412,16 +22180,16 @@
         <v>19.79</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H256" s="7" t="n">
         <v>1</v>
@@ -21450,10 +22218,13 @@
       <c r="P256" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q256" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>0.675</v>
@@ -21462,16 +22233,16 @@
         <v>26.49</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H257" s="7" t="n">
         <v>1</v>
@@ -21500,10 +22271,13 @@
       <c r="P257" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q257" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>0.675</v>
@@ -21512,16 +22286,16 @@
         <v>35.4</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H258" s="7" t="n">
         <v>1</v>
@@ -21550,10 +22324,13 @@
       <c r="P258" s="1" t="n">
         <v>0.3</v>
       </c>
+      <c r="Q258" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>0.675</v>
@@ -21562,16 +22339,16 @@
         <v>47.03</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H259" s="7" t="n">
         <v>1</v>
@@ -21600,10 +22377,13 @@
       <c r="P259" s="1" t="n">
         <v>0.3</v>
       </c>
+      <c r="Q259" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>0.675</v>
@@ -21612,16 +22392,16 @@
         <v>63.53</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H260" s="7" t="n">
         <v>1</v>
@@ -21650,10 +22430,13 @@
       <c r="P260" s="1" t="n">
         <v>0.3</v>
       </c>
+      <c r="Q260" s="1" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>0.675</v>
@@ -21662,16 +22445,16 @@
         <v>99.03</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H261" s="7" t="n">
         <v>1</v>
@@ -21699,6 +22482,9 @@
       </c>
       <c r="P261" s="1" t="n">
         <v>0.3</v>
+      </c>
+      <c r="Q261" s="1" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -21720,12 +22506,12 @@
   <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A261 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6511627906977"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21739,19 +22525,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
